--- a/spreadsheet/macrofree/waf.pt.xlsx
+++ b/spreadsheet/macrofree/waf.pt.xlsx
@@ -10754,7 +10754,7 @@
       </c>
       <c r="D193" s="18" t="inlineStr">
         <is>
-          <t>Não use o complemento de roteamento de aplicativo AKS</t>
+          <t>Não use AKS HTTP Routing Add-On, use em vez disso a entrada NGINX gerenciada com o complemento de roteamento de aplicativo.</t>
         </is>
       </c>
       <c r="E193" s="18" t="n"/>
@@ -10830,11 +10830,7 @@
         </is>
       </c>
       <c r="J194" s="13" t="n"/>
-      <c r="K194" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K194" s="19" t="n"/>
       <c r="L194" s="19" t="inlineStr">
         <is>
           <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>

--- a/spreadsheet/macrofree/waf.pt.xlsx
+++ b/spreadsheet/macrofree/waf.pt.xlsx
@@ -23945,7 +23945,7 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Implante sua política de WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
@@ -24373,7 +24373,7 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24628,7 +24628,7 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Azure Front Door.</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
@@ -24730,7 +24730,7 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Habilite o conjunto de regras de proteção de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
@@ -24781,7 +24781,7 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
@@ -24934,7 +24934,7 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
@@ -25019,17 +25019,50 @@
       <c r="Q474" s="20" t="n"/>
     </row>
     <row r="475">
-      <c r="A475" s="18" t="n"/>
-      <c r="B475" s="18" t="n"/>
-      <c r="C475" s="18" t="n"/>
-      <c r="D475" s="18" t="n"/>
+      <c r="A475" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B475" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C475" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D475" s="18" t="inlineStr">
+        <is>
+          <t>Habilitar o conjunto de regras de proteção de bot WAF do Gateway de Aplicativo do Azure As regras de bot detectam bots bons e ruins.</t>
+        </is>
+      </c>
       <c r="E475" s="18" t="n"/>
-      <c r="F475" s="18" t="n"/>
+      <c r="F475" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H475" s="18" t="n"/>
-      <c r="I475" s="13" t="n"/>
+      <c r="I475" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J475" s="13" t="n"/>
       <c r="K475" s="19" t="n"/>
-      <c r="L475" s="19" t="n"/>
+      <c r="L475" s="19" t="inlineStr">
+        <is>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+        </is>
+      </c>
       <c r="M475" s="20" t="n"/>
       <c r="N475" s="20" t="n"/>
       <c r="O475" s="20" t="n"/>
@@ -25037,17 +25070,50 @@
       <c r="Q475" s="20" t="n"/>
     </row>
     <row r="476">
-      <c r="A476" s="18" t="n"/>
-      <c r="B476" s="18" t="n"/>
-      <c r="C476" s="18" t="n"/>
-      <c r="D476" s="18" t="n"/>
+      <c r="A476" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B476" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C476" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D476" s="18" t="inlineStr">
+        <is>
+          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Gateway de Aplicativo do Azure.</t>
+        </is>
+      </c>
       <c r="E476" s="18" t="n"/>
-      <c r="F476" s="18" t="n"/>
+      <c r="F476" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H476" s="18" t="n"/>
-      <c r="I476" s="13" t="n"/>
+      <c r="I476" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J476" s="13" t="n"/>
       <c r="K476" s="19" t="n"/>
-      <c r="L476" s="19" t="n"/>
+      <c r="L476" s="19" t="inlineStr">
+        <is>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+        </is>
+      </c>
       <c r="M476" s="20" t="n"/>
       <c r="N476" s="20" t="n"/>
       <c r="O476" s="20" t="n"/>
@@ -25055,17 +25121,50 @@
       <c r="Q476" s="20" t="n"/>
     </row>
     <row r="477">
-      <c r="A477" s="18" t="n"/>
-      <c r="B477" s="18" t="n"/>
-      <c r="C477" s="18" t="n"/>
-      <c r="D477" s="18" t="n"/>
+      <c r="A477" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B477" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C477" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D477" s="18" t="inlineStr">
+        <is>
+          <t>Ajuste o WAF do Gateway de Aplicativo do Azure para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+        </is>
+      </c>
       <c r="E477" s="18" t="n"/>
-      <c r="F477" s="18" t="n"/>
+      <c r="F477" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H477" s="18" t="n"/>
-      <c r="I477" s="13" t="n"/>
+      <c r="I477" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J477" s="13" t="n"/>
       <c r="K477" s="19" t="n"/>
-      <c r="L477" s="19" t="n"/>
+      <c r="L477" s="19" t="inlineStr">
+        <is>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+        </is>
+      </c>
       <c r="M477" s="20" t="n"/>
       <c r="N477" s="20" t="n"/>
       <c r="O477" s="20" t="n"/>
@@ -25073,17 +25172,54 @@
       <c r="Q477" s="20" t="n"/>
     </row>
     <row r="478">
-      <c r="A478" s="18" t="n"/>
-      <c r="B478" s="18" t="n"/>
-      <c r="C478" s="18" t="n"/>
-      <c r="D478" s="18" t="n"/>
+      <c r="A478" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B478" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C478" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D478" s="18" t="inlineStr">
+        <is>
+          <t>Implante sua política de WAF para o Application Gateway no modo 'Prevenção'.</t>
+        </is>
+      </c>
       <c r="E478" s="18" t="n"/>
-      <c r="F478" s="18" t="n"/>
+      <c r="F478" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H478" s="18" t="n"/>
-      <c r="I478" s="13" t="n"/>
+      <c r="I478" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J478" s="13" t="n"/>
-      <c r="K478" s="19" t="n"/>
-      <c r="L478" s="19" t="n"/>
+      <c r="K478" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
+      <c r="L478" s="19" t="inlineStr">
+        <is>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+        </is>
+      </c>
       <c r="M478" s="20" t="n"/>
       <c r="N478" s="20" t="n"/>
       <c r="O478" s="20" t="n"/>
@@ -25091,17 +25227,50 @@
       <c r="Q478" s="20" t="n"/>
     </row>
     <row r="479">
-      <c r="A479" s="18" t="n"/>
-      <c r="B479" s="18" t="n"/>
-      <c r="C479" s="18" t="n"/>
-      <c r="D479" s="18" t="n"/>
+      <c r="A479" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B479" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C479" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D479" s="18" t="inlineStr">
+        <is>
+          <t>Adicione o limite de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+        </is>
+      </c>
       <c r="E479" s="18" t="n"/>
-      <c r="F479" s="18" t="n"/>
+      <c r="F479" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H479" s="18" t="n"/>
-      <c r="I479" s="13" t="n"/>
+      <c r="I479" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J479" s="13" t="n"/>
       <c r="K479" s="19" t="n"/>
-      <c r="L479" s="19" t="n"/>
+      <c r="L479" s="19" t="inlineStr">
+        <is>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+        </is>
+      </c>
       <c r="M479" s="20" t="n"/>
       <c r="N479" s="20" t="n"/>
       <c r="O479" s="20" t="n"/>
@@ -25109,17 +25278,50 @@
       <c r="Q479" s="20" t="n"/>
     </row>
     <row r="480">
-      <c r="A480" s="18" t="n"/>
-      <c r="B480" s="18" t="n"/>
-      <c r="C480" s="18" t="n"/>
-      <c r="D480" s="18" t="n"/>
+      <c r="A480" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B480" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C480" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D480" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+        </is>
+      </c>
       <c r="E480" s="18" t="n"/>
-      <c r="F480" s="18" t="n"/>
+      <c r="F480" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H480" s="18" t="n"/>
-      <c r="I480" s="13" t="n"/>
+      <c r="I480" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J480" s="13" t="n"/>
       <c r="K480" s="19" t="n"/>
-      <c r="L480" s="19" t="n"/>
+      <c r="L480" s="19" t="inlineStr">
+        <is>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+        </is>
+      </c>
       <c r="M480" s="20" t="n"/>
       <c r="N480" s="20" t="n"/>
       <c r="O480" s="20" t="n"/>
@@ -25127,17 +25329,50 @@
       <c r="Q480" s="20" t="n"/>
     </row>
     <row r="481">
-      <c r="A481" s="18" t="n"/>
-      <c r="B481" s="18" t="n"/>
-      <c r="C481" s="18" t="n"/>
-      <c r="D481" s="18" t="n"/>
+      <c r="A481" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B481" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C481" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D481" s="18" t="inlineStr">
+        <is>
+          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+        </is>
+      </c>
       <c r="E481" s="18" t="n"/>
-      <c r="F481" s="18" t="n"/>
+      <c r="F481" s="18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H481" s="18" t="n"/>
-      <c r="I481" s="13" t="n"/>
+      <c r="I481" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J481" s="13" t="n"/>
       <c r="K481" s="19" t="n"/>
-      <c r="L481" s="19" t="n"/>
+      <c r="L481" s="19" t="inlineStr">
+        <is>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+        </is>
+      </c>
       <c r="M481" s="20" t="n"/>
       <c r="N481" s="20" t="n"/>
       <c r="O481" s="20" t="n"/>
@@ -25145,17 +25380,50 @@
       <c r="Q481" s="20" t="n"/>
     </row>
     <row r="482">
-      <c r="A482" s="18" t="n"/>
-      <c r="B482" s="18" t="n"/>
-      <c r="C482" s="18" t="n"/>
-      <c r="D482" s="18" t="n"/>
+      <c r="A482" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B482" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C482" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D482" s="18" t="inlineStr">
+        <is>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Gateway de Aplicativo do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+        </is>
+      </c>
       <c r="E482" s="18" t="n"/>
-      <c r="F482" s="18" t="n"/>
+      <c r="F482" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H482" s="18" t="n"/>
-      <c r="I482" s="13" t="n"/>
+      <c r="I482" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J482" s="13" t="n"/>
       <c r="K482" s="19" t="n"/>
-      <c r="L482" s="19" t="n"/>
+      <c r="L482" s="19" t="inlineStr">
+        <is>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+        </is>
+      </c>
       <c r="M482" s="20" t="n"/>
       <c r="N482" s="20" t="n"/>
       <c r="O482" s="20" t="n"/>
@@ -25163,17 +25431,50 @@
       <c r="Q482" s="20" t="n"/>
     </row>
     <row r="483">
-      <c r="A483" s="18" t="n"/>
-      <c r="B483" s="18" t="n"/>
-      <c r="C483" s="18" t="n"/>
-      <c r="D483" s="18" t="n"/>
+      <c r="A483" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B483" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C483" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D483" s="18" t="inlineStr">
+        <is>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+        </is>
+      </c>
       <c r="E483" s="18" t="n"/>
-      <c r="F483" s="18" t="n"/>
+      <c r="F483" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H483" s="18" t="n"/>
-      <c r="I483" s="13" t="n"/>
+      <c r="I483" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J483" s="13" t="n"/>
       <c r="K483" s="19" t="n"/>
-      <c r="L483" s="19" t="n"/>
+      <c r="L483" s="19" t="inlineStr">
+        <is>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+        </is>
+      </c>
       <c r="M483" s="20" t="n"/>
       <c r="N483" s="20" t="n"/>
       <c r="O483" s="20" t="n"/>
@@ -25181,17 +25482,50 @@
       <c r="Q483" s="20" t="n"/>
     </row>
     <row r="484">
-      <c r="A484" s="18" t="n"/>
-      <c r="B484" s="18" t="n"/>
-      <c r="C484" s="18" t="n"/>
-      <c r="D484" s="18" t="n"/>
+      <c r="A484" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B484" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C484" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D484" s="18" t="inlineStr">
+        <is>
+          <t>Adicione configurações de diagnóstico para salvar seus logs WAF do Gateway de Aplicativo do Azure.</t>
+        </is>
+      </c>
       <c r="E484" s="18" t="n"/>
-      <c r="F484" s="18" t="n"/>
+      <c r="F484" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H484" s="18" t="n"/>
-      <c r="I484" s="13" t="n"/>
+      <c r="I484" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J484" s="13" t="n"/>
       <c r="K484" s="19" t="n"/>
-      <c r="L484" s="19" t="n"/>
+      <c r="L484" s="19" t="inlineStr">
+        <is>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+        </is>
+      </c>
       <c r="M484" s="20" t="n"/>
       <c r="N484" s="20" t="n"/>
       <c r="O484" s="20" t="n"/>
@@ -25199,17 +25533,50 @@
       <c r="Q484" s="20" t="n"/>
     </row>
     <row r="485">
-      <c r="A485" s="18" t="n"/>
-      <c r="B485" s="18" t="n"/>
-      <c r="C485" s="18" t="n"/>
-      <c r="D485" s="18" t="n"/>
+      <c r="A485" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B485" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C485" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D485" s="18" t="inlineStr">
+        <is>
+          <t>Adicione configurações de diagnóstico para salvar seus logs do WAF do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="E485" s="18" t="n"/>
-      <c r="F485" s="18" t="n"/>
+      <c r="F485" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H485" s="18" t="n"/>
-      <c r="I485" s="13" t="n"/>
+      <c r="I485" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J485" s="13" t="n"/>
       <c r="K485" s="19" t="n"/>
-      <c r="L485" s="19" t="n"/>
+      <c r="L485" s="19" t="inlineStr">
+        <is>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+        </is>
+      </c>
       <c r="M485" s="20" t="n"/>
       <c r="N485" s="20" t="n"/>
       <c r="O485" s="20" t="n"/>
@@ -25217,17 +25584,50 @@
       <c r="Q485" s="20" t="n"/>
     </row>
     <row r="486">
-      <c r="A486" s="18" t="n"/>
-      <c r="B486" s="18" t="n"/>
-      <c r="C486" s="18" t="n"/>
-      <c r="D486" s="18" t="n"/>
+      <c r="A486" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B486" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C486" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D486" s="18" t="inlineStr">
+        <is>
+          <t>Envie logs do WAF do Gateway de Aplicativo do Azure para o Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="E486" s="18" t="n"/>
-      <c r="F486" s="18" t="n"/>
+      <c r="F486" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H486" s="18" t="n"/>
-      <c r="I486" s="13" t="n"/>
+      <c r="I486" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J486" s="13" t="n"/>
       <c r="K486" s="19" t="n"/>
-      <c r="L486" s="19" t="n"/>
+      <c r="L486" s="19" t="inlineStr">
+        <is>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+        </is>
+      </c>
       <c r="M486" s="20" t="n"/>
       <c r="N486" s="20" t="n"/>
       <c r="O486" s="20" t="n"/>
@@ -25235,17 +25635,50 @@
       <c r="Q486" s="20" t="n"/>
     </row>
     <row r="487">
-      <c r="A487" s="18" t="n"/>
-      <c r="B487" s="18" t="n"/>
-      <c r="C487" s="18" t="n"/>
-      <c r="D487" s="18" t="n"/>
+      <c r="A487" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B487" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C487" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D487" s="18" t="inlineStr">
+        <is>
+          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="E487" s="18" t="n"/>
-      <c r="F487" s="18" t="n"/>
+      <c r="F487" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H487" s="18" t="n"/>
-      <c r="I487" s="13" t="n"/>
+      <c r="I487" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J487" s="13" t="n"/>
       <c r="K487" s="19" t="n"/>
-      <c r="L487" s="19" t="n"/>
+      <c r="L487" s="19" t="inlineStr">
+        <is>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+        </is>
+      </c>
       <c r="M487" s="20" t="n"/>
       <c r="N487" s="20" t="n"/>
       <c r="O487" s="20" t="n"/>
@@ -25253,17 +25686,50 @@
       <c r="Q487" s="20" t="n"/>
     </row>
     <row r="488">
-      <c r="A488" s="18" t="n"/>
-      <c r="B488" s="18" t="n"/>
-      <c r="C488" s="18" t="n"/>
-      <c r="D488" s="18" t="n"/>
+      <c r="A488" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B488" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C488" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D488" s="18" t="inlineStr">
+        <is>
+          <t>Defina sua configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+        </is>
+      </c>
       <c r="E488" s="18" t="n"/>
-      <c r="F488" s="18" t="n"/>
+      <c r="F488" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H488" s="18" t="n"/>
-      <c r="I488" s="13" t="n"/>
+      <c r="I488" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J488" s="13" t="n"/>
       <c r="K488" s="19" t="n"/>
-      <c r="L488" s="19" t="n"/>
+      <c r="L488" s="19" t="inlineStr">
+        <is>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+        </is>
+      </c>
       <c r="M488" s="20" t="n"/>
       <c r="N488" s="20" t="n"/>
       <c r="O488" s="20" t="n"/>
@@ -25271,17 +25737,50 @@
       <c r="Q488" s="20" t="n"/>
     </row>
     <row r="489">
-      <c r="A489" s="18" t="n"/>
-      <c r="B489" s="18" t="n"/>
-      <c r="C489" s="18" t="n"/>
-      <c r="D489" s="18" t="n"/>
+      <c r="A489" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B489" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C489" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D489" s="18" t="inlineStr">
+        <is>
+          <t>Use políticas de WAF em vez da configuração de WAF herdada.</t>
+        </is>
+      </c>
       <c r="E489" s="18" t="n"/>
-      <c r="F489" s="18" t="n"/>
+      <c r="F489" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H489" s="18" t="n"/>
-      <c r="I489" s="13" t="n"/>
+      <c r="I489" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J489" s="13" t="n"/>
       <c r="K489" s="19" t="n"/>
-      <c r="L489" s="19" t="n"/>
+      <c r="L489" s="19" t="inlineStr">
+        <is>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+        </is>
+      </c>
       <c r="M489" s="20" t="n"/>
       <c r="N489" s="20" t="n"/>
       <c r="O489" s="20" t="n"/>
@@ -25289,17 +25788,50 @@
       <c r="Q489" s="20" t="n"/>
     </row>
     <row r="490">
-      <c r="A490" s="18" t="n"/>
-      <c r="B490" s="18" t="n"/>
-      <c r="C490" s="18" t="n"/>
-      <c r="D490" s="18" t="n"/>
+      <c r="A490" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B490" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C490" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D490" s="18" t="inlineStr">
+        <is>
+          <t>Filtre o tráfego de entrada nos back-ends para que eles só aceitem conexões da sub-rede do Application Gateway, por exemplo, com NSGs.</t>
+        </is>
+      </c>
       <c r="E490" s="18" t="n"/>
-      <c r="F490" s="18" t="n"/>
+      <c r="F490" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H490" s="18" t="n"/>
-      <c r="I490" s="13" t="n"/>
+      <c r="I490" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J490" s="13" t="n"/>
       <c r="K490" s="19" t="n"/>
-      <c r="L490" s="19" t="n"/>
+      <c r="L490" s="19" t="inlineStr">
+        <is>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+        </is>
+      </c>
       <c r="M490" s="20" t="n"/>
       <c r="N490" s="20" t="n"/>
       <c r="O490" s="20" t="n"/>
@@ -38321,7 +38853,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G475" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -38695,6 +39227,22 @@
     <hyperlink ref="I472" r:id="rId367"/>
     <hyperlink ref="I473" r:id="rId368"/>
     <hyperlink ref="I474" r:id="rId369"/>
+    <hyperlink ref="I475" r:id="rId370"/>
+    <hyperlink ref="I476" r:id="rId371"/>
+    <hyperlink ref="I477" r:id="rId372"/>
+    <hyperlink ref="I478" r:id="rId373"/>
+    <hyperlink ref="I479" r:id="rId374"/>
+    <hyperlink ref="I480" r:id="rId375"/>
+    <hyperlink ref="I481" r:id="rId376"/>
+    <hyperlink ref="I482" r:id="rId377"/>
+    <hyperlink ref="I483" r:id="rId378"/>
+    <hyperlink ref="I484" r:id="rId379"/>
+    <hyperlink ref="I485" r:id="rId380"/>
+    <hyperlink ref="I486" r:id="rId381"/>
+    <hyperlink ref="I487" r:id="rId382"/>
+    <hyperlink ref="I488" r:id="rId383"/>
+    <hyperlink ref="I489" r:id="rId384"/>
+    <hyperlink ref="I490" r:id="rId385"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf.pt.xlsx
+++ b/spreadsheet/macrofree/waf.pt.xlsx
@@ -25839,17 +25839,50 @@
       <c r="Q490" s="20" t="n"/>
     </row>
     <row r="491">
-      <c r="A491" s="18" t="n"/>
-      <c r="B491" s="18" t="n"/>
-      <c r="C491" s="18" t="n"/>
-      <c r="D491" s="18" t="n"/>
+      <c r="A491" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B491" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C491" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D491" s="18" t="inlineStr">
+        <is>
+          <t>Certifique-se de que suas origens recebam apenas o tráfego de sua instância do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="E491" s="18" t="n"/>
-      <c r="F491" s="18" t="n"/>
+      <c r="F491" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H491" s="18" t="n"/>
-      <c r="I491" s="13" t="n"/>
+      <c r="I491" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J491" s="13" t="n"/>
       <c r="K491" s="19" t="n"/>
-      <c r="L491" s="19" t="n"/>
+      <c r="L491" s="19" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M491" s="20" t="n"/>
       <c r="N491" s="20" t="n"/>
       <c r="O491" s="20" t="n"/>
@@ -38853,7 +38886,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G492" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -39243,6 +39276,7 @@
     <hyperlink ref="I488" r:id="rId383"/>
     <hyperlink ref="I489" r:id="rId384"/>
     <hyperlink ref="I490" r:id="rId385"/>
+    <hyperlink ref="I491" r:id="rId386"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
